--- a/LyonA2019_Exercices_Faire_2019-11-05.xlsx
+++ b/LyonA2019_Exercices_Faire_2019-11-05.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chapitre 1" sheetId="1" r:id="rId1"/>
     <sheet name="Chapitre 2" sheetId="2" r:id="rId2"/>
     <sheet name="Chapitre 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chapitre 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Chapitre 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Chapitre 8" sheetId="8" r:id="rId6"/>
+    <sheet name="Chapitre 9" sheetId="6" r:id="rId7"/>
+    <sheet name="Chapitre 10" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
   <si>
     <t>Numéro</t>
   </si>
@@ -65,6 +70,57 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Note :</t>
+  </si>
+  <si>
+    <t>Il n'y aura pas de question requérant l'utilisation de l'approximation  normale.</t>
+  </si>
+  <si>
+    <t>question essentielle</t>
+  </si>
+  <si>
+    <t>(a) seulement</t>
+  </si>
+  <si>
+    <t>(a-e)</t>
+  </si>
+  <si>
+    <t>(a-b)</t>
+  </si>
+  <si>
+    <t>à confirmer</t>
+  </si>
+  <si>
+    <t>Chapitre 9</t>
+  </si>
+  <si>
+    <t>Méthodes récursives d'agrégation</t>
+  </si>
+  <si>
+    <t>Chapitre 10 Distributions multivariées</t>
+  </si>
+  <si>
+    <t>Chapitre Mutualisation des risques non-vie</t>
+  </si>
+  <si>
+    <t>Chapitre Modélisation des risques non-vie</t>
+  </si>
+  <si>
+    <t>Chapitre Mesures de risque et mutualisation</t>
+  </si>
+  <si>
+    <t>Chapitre Méthodes Monte-Carlo</t>
+  </si>
+  <si>
+    <t>Chapitre Notions de probabilité</t>
+  </si>
+  <si>
+    <t>Chapitre 10</t>
+  </si>
+  <si>
+    <t>Processus de comptage</t>
   </si>
 </sst>
 </file>
@@ -400,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,6 +468,9 @@
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +769,9 @@
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,7 +983,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,6 +995,9 @@
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1412,6 +1477,1759 @@
       </c>
       <c r="B54">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LyonA2019_Exercices_Faire_2019-11-05.xlsx
+++ b/LyonA2019_Exercices_Faire_2019-11-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Chapitre 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Chapitre 8" sheetId="8" r:id="rId6"/>
     <sheet name="Chapitre 9" sheetId="6" r:id="rId7"/>
     <sheet name="Chapitre 10" sheetId="7" r:id="rId8"/>
+    <sheet name="Anciens Examens" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
   <si>
     <t>Numéro</t>
   </si>
@@ -121,6 +122,45 @@
   </si>
   <si>
     <t>Processus de comptage</t>
+  </si>
+  <si>
+    <t>Document avec 6 anciens examens</t>
+  </si>
+  <si>
+    <t>Chapitre 2</t>
+  </si>
+  <si>
+    <t>Partiel traditionnel H2018</t>
+  </si>
+  <si>
+    <t>Partiel informatique H2018</t>
+  </si>
+  <si>
+    <t>Chapitre 3</t>
+  </si>
+  <si>
+    <t>Final informatique H2018</t>
+  </si>
+  <si>
+    <t>(sauf d et e)</t>
+  </si>
+  <si>
+    <t>Chapitre 4</t>
+  </si>
+  <si>
+    <t>Chapitre 5/6</t>
+  </si>
+  <si>
+    <t>Partiel traditionnel A2017</t>
+  </si>
+  <si>
+    <t>Note : les contenus des chapitres 5 et 6 sont identiques</t>
+  </si>
+  <si>
+    <t>EMarceau_Anciens_Examens_2018-12-10_v4.pdf</t>
+  </si>
+  <si>
+    <t>Fichier :</t>
   </si>
 </sst>
 </file>
@@ -460,9 +500,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -473,7 +513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -481,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -489,10 +529,10 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -500,7 +540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -508,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -516,8 +556,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -527,7 +567,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -555,7 +595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -563,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -571,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -579,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -587,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -595,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -603,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -611,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -619,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -627,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -635,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -643,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -651,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -659,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -667,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -675,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -683,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -691,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -699,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -707,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -715,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -723,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
@@ -731,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
@@ -739,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -761,9 +801,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -774,7 +814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -782,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -790,10 +830,10 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -801,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -809,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -817,8 +857,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -828,7 +868,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -856,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -870,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -884,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -892,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -900,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -908,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -916,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -924,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -932,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -940,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -948,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -956,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -964,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -986,9 +1026,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1015,10 +1055,10 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1026,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1034,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1042,8 +1082,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1053,7 +1093,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1081,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1095,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1109,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1123,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1137,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1151,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1165,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1179,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1193,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1207,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1215,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1223,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1231,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1239,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1247,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1255,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -1263,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1271,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -1279,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1287,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -1295,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -1303,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
@@ -1311,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
@@ -1319,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -1327,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -1335,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27</v>
       </c>
@@ -1343,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -1351,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>29</v>
       </c>
@@ -1359,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -1367,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>31</v>
       </c>
@@ -1375,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>32</v>
       </c>
@@ -1383,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>33</v>
       </c>
@@ -1391,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>34</v>
       </c>
@@ -1399,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>35</v>
       </c>
@@ -1407,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>36</v>
       </c>
@@ -1415,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>37</v>
       </c>
@@ -1423,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>38</v>
       </c>
@@ -1431,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>39</v>
       </c>
@@ -1439,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>40</v>
       </c>
@@ -1447,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>41</v>
       </c>
@@ -1455,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42</v>
       </c>
@@ -1463,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>43</v>
       </c>
@@ -1471,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44</v>
       </c>
@@ -1493,9 +1533,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1506,7 +1546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1522,10 +1562,10 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1533,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1541,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1549,8 +1589,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1560,7 +1600,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1588,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1602,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1616,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1630,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1638,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1646,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1654,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1662,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1670,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1678,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1686,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1694,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1702,7 +1742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1710,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1718,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1726,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -1734,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1742,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -1750,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1758,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -1766,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -1774,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
@@ -1782,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
@@ -1790,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -1798,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -1806,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27</v>
       </c>
@@ -1814,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -1822,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>29</v>
       </c>
@@ -1830,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -1838,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>31</v>
       </c>
@@ -1846,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>32</v>
       </c>
@@ -1854,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>33</v>
       </c>
@@ -1862,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>34</v>
       </c>
@@ -1884,9 +1924,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1905,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1913,10 +1953,10 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1924,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1932,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1940,8 +1980,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1951,7 +1991,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1982,7 +2022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1999,7 +2039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2016,7 +2056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2033,7 +2073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2047,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2061,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2075,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2089,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2103,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2117,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2131,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2145,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -2153,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2161,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -2169,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -2177,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -2185,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -2193,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -2201,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -2209,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -2217,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -2225,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
@@ -2233,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
@@ -2241,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -2249,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -2257,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27</v>
       </c>
@@ -2265,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -2273,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>29</v>
       </c>
@@ -2281,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -2289,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>31</v>
       </c>
@@ -2297,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>32</v>
       </c>
@@ -2305,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>33</v>
       </c>
@@ -2313,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>34</v>
       </c>
@@ -2321,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>35</v>
       </c>
@@ -2329,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2347,13 +2387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2375,7 +2415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2383,10 +2423,10 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2394,7 +2434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2402,7 +2442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2410,8 +2450,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -2421,7 +2461,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2449,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2463,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2477,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2491,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2505,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2519,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2533,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2547,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2561,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2575,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2583,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2602,12 +2642,12 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2621,7 +2661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2629,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2637,10 +2677,10 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2648,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2656,7 +2696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2664,8 +2704,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +2715,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2703,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2717,7 +2757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2731,7 +2771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2748,7 +2788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2762,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2776,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2790,7 +2830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2804,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2818,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2826,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2834,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2856,9 +2896,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2877,7 +2917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2885,10 +2925,10 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2896,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2904,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2912,8 +2952,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -2923,7 +2963,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2948,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2959,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2970,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2981,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2992,7 +3032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -3003,7 +3043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -3014,7 +3054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -3025,7 +3065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3036,7 +3076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3044,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -3052,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3060,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -3068,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3076,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -3087,7 +3127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3098,7 +3138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -3109,7 +3149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -3117,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -3125,7 +3165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -3133,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -3141,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -3149,7 +3189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
@@ -3157,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
@@ -3168,7 +3208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -3176,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -3184,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27</v>
       </c>
@@ -3192,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -3200,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>29</v>
       </c>
@@ -3208,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -3216,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>31</v>
       </c>
@@ -3224,12 +3264,539 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>32</v>
       </c>
       <c r="B42">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43774</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
